--- a/산출물/HelloPapang_요구사항_명세서_V0.2.xlsx
+++ b/산출물/HelloPapang_요구사항_명세서_V0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\helloPaPang\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38335860-B7EB-40A9-9D87-4C3A9DCCEEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53019C2D-0990-4F23-BD83-D2ABBB2604A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D4E2080-409B-4A7D-AC22-6D77FDB7AE98}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 명세서" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1629,59 +1629,59 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2029,13 +2029,13 @@
   <dimension ref="B2:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
     <col min="2" max="2" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
@@ -2048,27 +2048,27 @@
     <col min="9" max="9" width="64.59765625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="44" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="41" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="2" customFormat="1">
+    <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
@@ -2081,19 +2081,19 @@
       <c r="E3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="40"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="28" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="28"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="38" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -2110,10 +2110,10 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="30"/>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="10" t="s">
         <v>99</v>
       </c>
@@ -2128,10 +2128,10 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="2:9" ht="34.799999999999997">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="30"/>
+    <row r="6" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="7" t="s">
         <v>76</v>
       </c>
@@ -2146,12 +2146,12 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="2:9" ht="104.4">
-      <c r="B7" s="28"/>
-      <c r="C7" s="38" t="s">
+    <row r="7" spans="2:9" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="B7" s="35"/>
+      <c r="C7" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="40" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2163,17 +2163,17 @@
       <c r="G7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="43" t="s">
         <v>112</v>
       </c>
       <c r="I7" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="34.799999999999997">
-      <c r="B8" s="28"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="29"/>
+    <row r="8" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B8" s="35"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="10" t="s">
         <v>70</v>
       </c>
@@ -2183,15 +2183,15 @@
       <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="33"/>
+      <c r="H8" s="43"/>
       <c r="I8" s="20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="28"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="29"/>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="35"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="10" t="s">
         <v>69</v>
       </c>
@@ -2206,10 +2206,10 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="28"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="29"/>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="35"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="10" t="s">
         <v>96</v>
       </c>
@@ -2226,9 +2226,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="28"/>
-      <c r="C11" s="38"/>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="35"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="24"/>
       <c r="E11" s="10" t="s">
         <v>67</v>
@@ -2246,9 +2246,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="28"/>
-      <c r="C12" s="38"/>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="35"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="24"/>
       <c r="E12" s="10" t="s">
         <v>68</v>
@@ -2264,12 +2264,12 @@
       </c>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="2:9" ht="87">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29" t="s">
+    <row r="13" spans="2:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="B13" s="35"/>
+      <c r="C13" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="40" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -2281,17 +2281,17 @@
       <c r="G13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="41" t="s">
         <v>119</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="34.799999999999997">
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+    <row r="14" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B14" s="35"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="10" t="s">
         <v>70</v>
       </c>
@@ -2301,15 +2301,15 @@
       <c r="G14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="35"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="35"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="10" t="s">
         <v>69</v>
       </c>
@@ -2324,9 +2324,9 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="2:9" ht="34.799999999999997">
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
+    <row r="16" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B16" s="35"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="27" t="s">
         <v>160</v>
       </c>
@@ -2344,9 +2344,9 @@
       </c>
       <c r="I16" s="8"/>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="35"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
         <v>121</v>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="2:9" ht="34.799999999999997">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28" t="s">
+    <row r="18" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="10" t="s">
@@ -2386,10 +2386,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="34.799999999999997">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="30"/>
+    <row r="19" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="10" t="s">
         <v>125</v>
       </c>
@@ -2406,10 +2406,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="34.799999999999997">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="30"/>
+    <row r="20" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="7" t="s">
         <v>133</v>
       </c>
@@ -2426,10 +2426,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="30"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="7" t="s">
         <v>128</v>
       </c>
@@ -2446,9 +2446,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="34.799999999999997">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+    <row r="22" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="25" t="s">
         <v>162</v>
       </c>
@@ -2466,9 +2466,9 @@
       </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="2:9" ht="34.799999999999997">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+    <row r="23" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="25" t="s">
         <v>161</v>
       </c>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="2:9" ht="139.19999999999999">
-      <c r="B24" s="28"/>
+    <row r="24" spans="2:9" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="B24" s="35"/>
       <c r="C24" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="40" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -2510,10 +2510,10 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="28"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="29"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="35"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="10" t="s">
         <v>137</v>
       </c>
@@ -2528,10 +2528,10 @@
       </c>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="28"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="29"/>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="35"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="10" t="s">
         <v>136</v>
       </c>
@@ -2546,12 +2546,12 @@
       </c>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="28"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="35"/>
       <c r="C27" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="40" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -2568,10 +2568,10 @@
       </c>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="28"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="29"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="35"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="10" t="s">
         <v>142</v>
       </c>
@@ -2586,10 +2586,10 @@
       </c>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="28"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="29"/>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B29" s="35"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="7" t="s">
         <v>71</v>
       </c>
@@ -2604,12 +2604,12 @@
       </c>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="2:9" ht="69.599999999999994">
-      <c r="B30" s="28"/>
+    <row r="30" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B30" s="35"/>
       <c r="C30" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="40" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -2621,17 +2621,17 @@
       <c r="G30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="41" t="s">
         <v>82</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="34.799999999999997">
-      <c r="B31" s="28"/>
+    <row r="31" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B31" s="35"/>
       <c r="C31" s="36"/>
-      <c r="D31" s="29"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="10" t="s">
         <v>70</v>
       </c>
@@ -2641,15 +2641,15 @@
       <c r="G31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="35"/>
+      <c r="H31" s="41"/>
       <c r="I31" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="28"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="37" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="35"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="42" t="s">
         <v>159</v>
       </c>
       <c r="E32" s="10" t="s">
@@ -2668,10 +2668,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="69.599999999999994">
-      <c r="B33" s="28"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="29"/>
+    <row r="33" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B33" s="35"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="10" t="s">
         <v>91</v>
       </c>
@@ -2688,10 +2688,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="28"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="29"/>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="35"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="10" t="s">
         <v>93</v>
       </c>
@@ -2708,9 +2708,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="69.599999999999994">
-      <c r="B35" s="28"/>
-      <c r="C35" s="34"/>
+    <row r="35" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B35" s="35"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="10" t="s">
         <v>88</v>
       </c>
@@ -2730,8 +2730,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="87">
-      <c r="B36" s="28" t="s">
+    <row r="36" spans="2:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="B36" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="36" t="s">
@@ -2749,15 +2749,15 @@
       <c r="G36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="35" t="s">
+      <c r="H36" s="41" t="s">
         <v>153</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="34.799999999999997">
-      <c r="B37" s="28"/>
+    <row r="37" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B37" s="35"/>
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
       <c r="E37" s="17" t="s">
@@ -2769,15 +2769,15 @@
       <c r="G37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="35"/>
+      <c r="H37" s="41"/>
       <c r="I37" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="28"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B38" s="35"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37" t="s">
         <v>174</v>
       </c>
       <c r="E38" s="18" t="s">
@@ -2794,10 +2794,10 @@
       </c>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="28"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="35"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="18" t="s">
         <v>166</v>
       </c>
@@ -2812,10 +2812,10 @@
       </c>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="2:9" ht="34.799999999999997">
-      <c r="B40" s="28"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
+    <row r="40" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B40" s="35"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="18" t="s">
         <v>165</v>
       </c>
@@ -2830,10 +2830,10 @@
       </c>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="28"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34" t="s">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B41" s="35"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37" t="s">
         <v>173</v>
       </c>
       <c r="E41" s="18" t="s">
@@ -2850,10 +2850,10 @@
       </c>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="28"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="35"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="18" t="s">
         <v>165</v>
       </c>
@@ -2868,8 +2868,8 @@
       </c>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="28"/>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B43" s="35"/>
       <c r="C43" s="5" t="s">
         <v>22</v>
       </c>
@@ -2880,8 +2880,8 @@
       <c r="H43" s="6"/>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="28"/>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B44" s="35"/>
       <c r="C44" s="5" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +2892,8 @@
       <c r="H44" s="6"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="28" t="s">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B45" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -2906,12 +2906,12 @@
       <c r="H45" s="6"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="2:9" ht="69.599999999999994">
-      <c r="B46" s="28"/>
-      <c r="C46" s="28" t="s">
+    <row r="46" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B46" s="35"/>
+      <c r="C46" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="10" t="s">
@@ -2923,17 +2923,17 @@
       <c r="G46" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="33" t="s">
+      <c r="H46" s="43" t="s">
         <v>179</v>
       </c>
       <c r="I46" s="19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="34.799999999999997">
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="30"/>
+    <row r="47" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="10" t="s">
         <v>175</v>
       </c>
@@ -2943,15 +2943,15 @@
       <c r="G47" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="33"/>
+      <c r="H47" s="43"/>
       <c r="I47" s="19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="30"/>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="7" t="s">
         <v>182</v>
       </c>
@@ -2966,9 +2966,9 @@
       </c>
       <c r="I48" s="19"/>
     </row>
-    <row r="49" spans="2:9" ht="34.799999999999997">
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
+    <row r="49" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="10" t="s">
         <v>174</v>
       </c>
@@ -2986,9 +2986,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
       <c r="D50" s="10" t="s">
         <v>45</v>
       </c>
@@ -3004,14 +3004,14 @@
       </c>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="2:9" ht="69.599999999999994">
-      <c r="B51" s="28" t="s">
+    <row r="51" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B51" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="10" t="s">
@@ -3023,17 +3023,17 @@
       <c r="G51" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="33" t="s">
+      <c r="H51" s="43" t="s">
         <v>183</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="34.799999999999997">
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="30"/>
+    <row r="52" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="10" t="s">
         <v>175</v>
       </c>
@@ -3043,15 +3043,15 @@
       <c r="G52" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="33"/>
+      <c r="H52" s="43"/>
       <c r="I52" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="30"/>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="38"/>
       <c r="E53" s="7" t="s">
         <v>182</v>
       </c>
@@ -3066,15 +3066,15 @@
       </c>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="30"/>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="7" t="s">
         <v>187</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>9</v>
@@ -3084,9 +3084,9 @@
       </c>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="2:9" ht="34.799999999999997">
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
+    <row r="55" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="10" t="s">
         <v>174</v>
       </c>
@@ -3104,9 +3104,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
       <c r="D56" s="10" t="s">
         <v>45</v>
       </c>
@@ -3122,8 +3122,8 @@
       </c>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="28"/>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B57" s="35"/>
       <c r="C57" s="5" t="s">
         <v>40</v>
       </c>
@@ -3134,8 +3134,8 @@
       <c r="H57" s="6"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="28"/>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B58" s="35"/>
       <c r="C58" s="5" t="s">
         <v>41</v>
       </c>
@@ -3146,8 +3146,8 @@
       <c r="H58" s="6"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="39" t="s">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B59" s="34" t="s">
         <v>42</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -3160,8 +3160,8 @@
       <c r="H59" s="6"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="39"/>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B60" s="34"/>
       <c r="C60" s="5" t="s">
         <v>44</v>
       </c>
@@ -3172,14 +3172,14 @@
       <c r="H60" s="6"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="2:9" ht="34.799999999999997">
-      <c r="B61" s="28" t="s">
+    <row r="61" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B61" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="40" t="s">
         <v>13</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -3198,10 +3198,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="28"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="29"/>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B62" s="35"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="40"/>
       <c r="E62" s="10" t="s">
         <v>192</v>
       </c>
@@ -3216,9 +3216,9 @@
       </c>
       <c r="I62" s="11"/>
     </row>
-    <row r="63" spans="2:9" ht="34.799999999999997">
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
+    <row r="63" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="27" t="s">
         <v>196</v>
       </c>
@@ -3234,10 +3234,10 @@
       </c>
       <c r="I63" s="11"/>
     </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="29" t="s">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="40" t="s">
         <v>45</v>
       </c>
       <c r="E64" s="7"/>
@@ -3252,10 +3252,10 @@
       </c>
       <c r="I64" s="11"/>
     </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="29"/>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="40"/>
       <c r="E65" s="10" t="s">
         <v>195</v>
       </c>
@@ -3270,10 +3270,10 @@
       </c>
       <c r="I65" s="11"/>
     </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="29" t="s">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="40" t="s">
         <v>16</v>
       </c>
       <c r="E66" s="10" t="s">
@@ -3290,10 +3290,10 @@
       </c>
       <c r="I66" s="8"/>
     </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="29"/>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="40"/>
       <c r="E67" s="10" t="s">
         <v>201</v>
       </c>
@@ -3308,8 +3308,8 @@
       </c>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="28"/>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B68" s="35"/>
       <c r="C68" s="5" t="s">
         <v>33</v>
       </c>
@@ -3324,9 +3324,9 @@
       <c r="H68" s="9"/>
       <c r="I68" s="8"/>
     </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="28"/>
-      <c r="C69" s="28" t="s">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B69" s="35"/>
+      <c r="C69" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -3342,9 +3342,9 @@
       <c r="H69" s="9"/>
       <c r="I69" s="8"/>
     </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
       <c r="D70" s="5" t="s">
         <v>203</v>
       </c>
@@ -3362,12 +3362,12 @@
       </c>
       <c r="I70" s="8"/>
     </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="28"/>
-      <c r="C71" s="28" t="s">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B71" s="35"/>
+      <c r="C71" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -3384,10 +3384,10 @@
       </c>
       <c r="I71" s="8"/>
     </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="30"/>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="38"/>
       <c r="E72" s="7" t="s">
         <v>208</v>
       </c>
@@ -3402,10 +3402,10 @@
       </c>
       <c r="I72" s="8"/>
     </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="30"/>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="38"/>
       <c r="E73" s="7" t="s">
         <v>210</v>
       </c>
@@ -3420,9 +3420,9 @@
       </c>
       <c r="I73" s="8"/>
     </row>
-    <row r="74" spans="2:9" ht="34.799999999999997">
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
+    <row r="74" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
       <c r="D74" s="25" t="s">
         <v>212</v>
       </c>
@@ -3440,14 +3440,14 @@
       </c>
       <c r="I74" s="8"/>
     </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="28" t="s">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B75" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D75" s="45" t="s">
         <v>215</v>
       </c>
       <c r="E75" s="10" t="s">
@@ -3466,10 +3466,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
       <c r="E76" s="10" t="s">
         <v>110</v>
       </c>
@@ -3486,9 +3486,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
       <c r="D77" s="5" t="s">
         <v>217</v>
       </c>
@@ -3508,9 +3508,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
       <c r="D78" s="5" t="s">
         <v>218</v>
       </c>
@@ -3530,9 +3530,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
       <c r="D79" s="5"/>
       <c r="E79" s="10" t="s">
         <v>105</v>
@@ -3550,9 +3550,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="52.2">
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
+    <row r="80" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
       <c r="D80" s="5"/>
       <c r="E80" s="10" t="s">
         <v>73</v>
@@ -3570,9 +3570,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
       <c r="D81" s="5"/>
       <c r="E81" s="7" t="s">
         <v>7</v>
@@ -3588,12 +3588,12 @@
       </c>
       <c r="I81" s="8"/>
     </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="28"/>
-      <c r="C82" s="28" t="s">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B82" s="35"/>
+      <c r="C82" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="31" t="s">
+      <c r="D82" s="44" t="s">
         <v>4</v>
       </c>
       <c r="E82" s="10" t="s">
@@ -3610,11 +3610,11 @@
       </c>
       <c r="I82" s="8"/>
     </row>
-    <row r="83" spans="2:9" ht="69.599999999999994">
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="7" t="s">
+    <row r="83" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="10" t="s">
         <v>224</v>
       </c>
       <c r="F83" s="5" t="s">
@@ -3630,10 +3630,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="34.799999999999997">
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="31"/>
+    <row r="84" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="44"/>
       <c r="E84" s="7" t="s">
         <v>231</v>
       </c>
@@ -3648,10 +3648,10 @@
       </c>
       <c r="I84" s="8"/>
     </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="31"/>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="44"/>
       <c r="E85" s="7" t="s">
         <v>233</v>
       </c>
@@ -3666,10 +3666,10 @@
       </c>
       <c r="I85" s="8"/>
     </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="31"/>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="44"/>
       <c r="E86" s="7" t="s">
         <v>235</v>
       </c>
@@ -3684,10 +3684,10 @@
       </c>
       <c r="I86" s="8"/>
     </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="31"/>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="44"/>
       <c r="E87" s="7" t="s">
         <v>237</v>
       </c>
@@ -3702,9 +3702,9 @@
       </c>
       <c r="I87" s="8"/>
     </row>
-    <row r="88" spans="2:9" ht="69.599999999999994">
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
+    <row r="88" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
       <c r="D88" s="5"/>
       <c r="E88" s="25" t="s">
         <v>227</v>
@@ -3722,9 +3722,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
       <c r="D89" s="5"/>
       <c r="E89" s="27" t="s">
         <v>229</v>
@@ -3740,9 +3740,9 @@
       </c>
       <c r="I89" s="8"/>
     </row>
-    <row r="90" spans="2:9">
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
       <c r="D90" s="5" t="s">
         <v>10</v>
       </c>
@@ -3758,15 +3758,15 @@
       </c>
       <c r="I90" s="8"/>
     </row>
-    <row r="91" spans="2:9" ht="34.799999999999997">
-      <c r="B91" s="28"/>
-      <c r="C91" s="28" t="s">
+    <row r="91" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B91" s="35"/>
+      <c r="C91" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="28" t="s">
+      <c r="D91" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="10" t="s">
         <v>241</v>
       </c>
       <c r="F91" s="5" t="s">
@@ -3782,10 +3782,10 @@
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="87">
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
+    <row r="92" spans="2:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
       <c r="E92" s="10" t="s">
         <v>242</v>
       </c>
@@ -3802,8 +3802,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="28" t="s">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B93" s="35" t="s">
         <v>53</v>
       </c>
       <c r="C93" s="5"/>
@@ -3824,10 +3824,10 @@
       </c>
       <c r="I93" s="11"/>
     </row>
-    <row r="94" spans="2:9">
-      <c r="B94" s="28"/>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B94" s="35"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="34"/>
+      <c r="D94" s="37"/>
       <c r="E94" s="10" t="s">
         <v>247</v>
       </c>
@@ -3842,10 +3842,10 @@
       </c>
       <c r="I94" s="11"/>
     </row>
-    <row r="95" spans="2:9" ht="69.599999999999994">
-      <c r="B95" s="28"/>
+    <row r="95" spans="2:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="B95" s="35"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="34"/>
+      <c r="D95" s="37"/>
       <c r="E95" s="10" t="s">
         <v>249</v>
       </c>
@@ -3860,8 +3860,8 @@
       </c>
       <c r="I95" s="11"/>
     </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="28"/>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B96" s="35"/>
       <c r="C96" s="5"/>
       <c r="D96" s="16" t="s">
         <v>56</v>
@@ -3880,10 +3880,10 @@
       </c>
       <c r="I96" s="8"/>
     </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="28"/>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B97" s="35"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="28" t="s">
+      <c r="D97" s="35" t="s">
         <v>57</v>
       </c>
       <c r="E97" s="7" t="s">
@@ -3900,10 +3900,10 @@
       </c>
       <c r="I97" s="8"/>
     </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="28"/>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B98" s="35"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="28"/>
+      <c r="D98" s="35"/>
       <c r="E98" s="7" t="s">
         <v>255</v>
       </c>
@@ -3920,10 +3920,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="28"/>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B99" s="35"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="28"/>
+      <c r="D99" s="35"/>
       <c r="E99" s="7" t="s">
         <v>256</v>
       </c>
@@ -3938,8 +3938,8 @@
       </c>
       <c r="I99" s="8"/>
     </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="28"/>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B100" s="35"/>
       <c r="C100" s="5"/>
       <c r="D100" s="16" t="s">
         <v>55</v>
@@ -3958,8 +3958,8 @@
       </c>
       <c r="I100" s="8"/>
     </row>
-    <row r="101" spans="2:9" ht="34.799999999999997">
-      <c r="B101" s="28"/>
+    <row r="101" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B101" s="35"/>
       <c r="C101" s="5"/>
       <c r="D101" s="18" t="s">
         <v>260</v>
@@ -3980,8 +3980,8 @@
         <v>261</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="34.799999999999997">
-      <c r="B102" s="28" t="s">
+    <row r="102" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B102" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C102" s="5"/>
@@ -4000,8 +4000,8 @@
       </c>
       <c r="I102" s="11"/>
     </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="28"/>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B103" s="35"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="10" t="s">
@@ -4018,8 +4018,8 @@
       </c>
       <c r="I103" s="11"/>
     </row>
-    <row r="104" spans="2:9">
-      <c r="B104" s="28"/>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B104" s="35"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="10" t="s">
@@ -4038,8 +4038,8 @@
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="28"/>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B105" s="35"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="10" t="s">
@@ -4058,8 +4058,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="106" spans="2:9">
-      <c r="B106" s="28"/>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B106" s="35"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="10" t="s">
@@ -4076,8 +4076,8 @@
       </c>
       <c r="I106" s="11"/>
     </row>
-    <row r="107" spans="2:9">
-      <c r="B107" s="28"/>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B107" s="35"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="7" t="s">
@@ -4094,8 +4094,8 @@
       </c>
       <c r="I107" s="8"/>
     </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="28"/>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B108" s="35"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="10" t="s">
@@ -4112,8 +4112,8 @@
       </c>
       <c r="I108" s="11"/>
     </row>
-    <row r="109" spans="2:9">
-      <c r="B109" s="28"/>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B109" s="35"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="7" t="s">
@@ -4130,8 +4130,8 @@
       </c>
       <c r="I109" s="8"/>
     </row>
-    <row r="110" spans="2:9">
-      <c r="B110" s="28"/>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B110" s="35"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="10" t="s">
@@ -4148,8 +4148,8 @@
       </c>
       <c r="I110" s="11"/>
     </row>
-    <row r="111" spans="2:9" ht="87">
-      <c r="B111" s="28"/>
+    <row r="111" spans="2:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="B111" s="35"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="10" t="s">
@@ -4168,7 +4168,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B112" s="36" t="s">
         <v>24</v>
       </c>
@@ -4188,8 +4188,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
-      <c r="B113" s="34"/>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B113" s="37"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="10" t="s">
@@ -4206,7 +4206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="2:9">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B114" s="18" t="s">
         <v>265</v>
       </c>
@@ -4232,22 +4232,33 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C51:C56"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B102:B111"/>
-    <mergeCell ref="C61:C67"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="B61:B74"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C82:C90"/>
-    <mergeCell ref="C75:C81"/>
-    <mergeCell ref="B75:B92"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="B93:B101"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D82:D87"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D32:D34"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="D13:D15"/>
@@ -4264,33 +4275,22 @@
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="D7:D10"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="B93:B101"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C51:C56"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B102:B111"/>
+    <mergeCell ref="C61:C67"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="B61:B74"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C82:C90"/>
+    <mergeCell ref="C75:C81"/>
+    <mergeCell ref="B75:B92"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G23 F24:G26 G27:G30 G33:G82 G89:G95 G97:G1048576">
